--- a/Project_3/data/TSP_Problems_Euclidean/Results.xlsx
+++ b/Project_3/data/TSP_Problems_Euclidean/Results.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,19 +546,19 @@
         <v>6413</v>
       </c>
       <c r="D4" s="3">
-        <v>674.4</v>
+        <v>670</v>
       </c>
       <c r="E4" s="3">
-        <v>25847</v>
+        <v>24836</v>
       </c>
       <c r="F4" s="3">
         <v>15473</v>
       </c>
       <c r="G4" s="3">
-        <v>112256</v>
+        <v>112019</v>
       </c>
       <c r="H4" s="3">
-        <v>63543.8</v>
+        <v>61422</v>
       </c>
       <c r="I4" s="3">
         <v>1549.1</v>
@@ -630,6 +630,9 @@
       </c>
       <c r="H7">
         <v>61422</v>
+      </c>
+      <c r="I7">
+        <v>1554</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -658,6 +661,9 @@
       <c r="H8">
         <v>62305</v>
       </c>
+      <c r="I8">
+        <v>1511</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -685,6 +691,9 @@
       <c r="H9">
         <v>63255</v>
       </c>
+      <c r="I9">
+        <v>1591</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -709,6 +718,12 @@
       <c r="G10">
         <v>113205</v>
       </c>
+      <c r="H10">
+        <v>62125</v>
+      </c>
+      <c r="I10">
+        <v>1561</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -733,6 +748,12 @@
       <c r="G11">
         <v>112019</v>
       </c>
+      <c r="H11">
+        <v>60428</v>
+      </c>
+      <c r="I11">
+        <v>1605</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -757,6 +778,12 @@
       <c r="G12">
         <v>113368</v>
       </c>
+      <c r="H12">
+        <v>62678</v>
+      </c>
+      <c r="I12">
+        <v>1573</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -781,6 +808,9 @@
       <c r="G13">
         <v>113216</v>
       </c>
+      <c r="H13">
+        <v>63537</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -805,6 +835,9 @@
       <c r="G14">
         <v>114951</v>
       </c>
+      <c r="H14">
+        <v>61032</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -829,6 +862,9 @@
       <c r="G15">
         <v>112941</v>
       </c>
+      <c r="H15">
+        <v>67598</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -852,6 +888,9 @@
       </c>
       <c r="G16">
         <v>112129</v>
+      </c>
+      <c r="H16">
+        <v>61048</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -884,11 +923,11 @@
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
